--- a/Design/requirements/Requirements_IK_Services.xlsx
+++ b/Design/requirements/Requirements_IK_Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Gerken\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Gerken\Desktop\IK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B911A202-12B9-4B2F-8996-924604F5C2FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E4B7B2-F247-442C-97B5-6C90440D7B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4725" yWindow="4950" windowWidth="9600" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Funktional</t>
   </si>
   <si>
-    <t>Informationen über verfügbare Fahrzeuge müssen bei jeder Änderung des Betrags an den Server gesendet werden.</t>
-  </si>
-  <si>
     <t>Die Fahrzeuge sollen vom Server erhaltene Informationen bestätigen.</t>
   </si>
   <si>
@@ -82,6 +79,21 @@
   </si>
   <si>
     <t>Die Fahrzeuge müssen Informationen an den Server senden, wenn sie wieder Verfügbar sind.</t>
+  </si>
+  <si>
+    <t>Die Fahrzeuge sollen dem Server Informationen senden, wenn sie losfahren.</t>
+  </si>
+  <si>
+    <t>Das erhalten von Informationen sollte nicht länger wie 5s dauern.</t>
+  </si>
+  <si>
+    <t>Das Versenden von Informationen sollte nicht länger wie 5s dauern.</t>
+  </si>
+  <si>
+    <t>NFA3</t>
+  </si>
+  <si>
+    <t>NFA4</t>
   </si>
 </sst>
 </file>
@@ -482,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,95 +506,118 @@
     <col min="2" max="2" width="104.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/requirements/Requirements_IK_Services.xlsx
+++ b/Design/requirements/Requirements_IK_Services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Gerken\Desktop\IK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Gerken\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E4B7B2-F247-442C-97B5-6C90440D7B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6782CC-6FC8-45F1-B4D6-D1831DB4B877}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4725" yWindow="4950" windowWidth="9600" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Funktional</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Die Fahrzeuge sollen vom Server erhaltene Informationen bestätigen.</t>
   </si>
   <si>
-    <t>Die Fahrzeuge sollen ihre akktuellen GPS Koordinaten anzeigen.</t>
-  </si>
-  <si>
     <t>Die Fahrzeuge sollen eine eindeutige ID besitzen.</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
     <t>FA 1</t>
   </si>
   <si>
-    <t>FA 2</t>
-  </si>
-  <si>
-    <t>FA 3</t>
-  </si>
-  <si>
     <t>FA 4</t>
   </si>
   <si>
@@ -75,15 +66,6 @@
     <t>FA 5.1</t>
   </si>
   <si>
-    <t>Die Fahrzeuge müssen Informationen an den Server senden, wenn sie unterwegs sind.</t>
-  </si>
-  <si>
-    <t>Die Fahrzeuge müssen Informationen an den Server senden, wenn sie wieder Verfügbar sind.</t>
-  </si>
-  <si>
-    <t>Die Fahrzeuge sollen dem Server Informationen senden, wenn sie losfahren.</t>
-  </si>
-  <si>
     <t>Das erhalten von Informationen sollte nicht länger wie 5s dauern.</t>
   </si>
   <si>
@@ -94,6 +76,21 @@
   </si>
   <si>
     <t>NFA4</t>
+  </si>
+  <si>
+    <t>Die Fahrzeuge sollen ihre akktuellen GPS Koordinaten an den senden.</t>
+  </si>
+  <si>
+    <t>Die Fahrzeuge sollen dem Server Informationen senden, wenn sie sich anmelden.</t>
+  </si>
+  <si>
+    <t>Die Fahrzeugart muss dem Server mitgeteilt werden.</t>
+  </si>
+  <si>
+    <t>FA2</t>
+  </si>
+  <si>
+    <t>FA3</t>
   </si>
 </sst>
 </file>
@@ -496,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,62 +515,57 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2"/>
     </row>
@@ -583,26 +575,26 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,10 +603,10 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Design/requirements/Requirements_IK_Services.xlsx
+++ b/Design/requirements/Requirements_IK_Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Gerken\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Gerken\Documents\GitHub\mqtt_exercise_2021\Design\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6782CC-6FC8-45F1-B4D6-D1831DB4B877}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBFDD62-9B5A-4D7E-8278-042A87F60E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="5025" windowWidth="12495" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
